--- a/medicine/Enfance/Ruby_M._Ayres/Ruby_M._Ayres.xlsx
+++ b/medicine/Enfance/Ruby_M._Ayres/Ruby_M._Ayres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruby Mildred Ayres (née le 28 janvier 1881 à Watford  - morte le 14 novembre 1955 Weybridge) est une écrivaine et scénariste britannique.
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Elle est née le 28 janvier 1881 à Watford. C'est la troisième fille du mariage formé par Alice (née Whitford) et Charles Pryor Ayres, un architecte basé à Londres[1].
-Carrière
-Elle a commencé à écrire alors qu’elle était une fille, et sa première histoire a été publiée dans un magazine peu de temps après son mariage, et en 1912, elle a publié son premier roman, Châteaux en Espagne[1].
-En septembre 1915, avec son premier succès populaire, Richard Chatterton, V.C. (qui s’est vendu à plus de 50 000 exemplaires au cours des trois premières années), elle a déménagé des maisons d’édition à Hodder and Stoughton, où elle est restée jusqu’à sa mort en 1955. Elle a écrit plus de 150 romans et œuvres en feuilleton. Plusieurs de ses œuvres sont devenues des films et elle a écrit des scénarios pour Society for Sale, entre autres. Elle correspondait avec Douglas Sladen, et a peut-être aussi été une source d’inspiration pour le personnage de P. G. Wodehouse, Rosie M. Banks[1].
-Vie de famille
-En 1909, elle a épousé Reginald William Pocock, un courtier d’assurances, et ils ont vécu à Harrow jusqu’à sa mort dans un accident de train. Veuve sans enfants, elle a déménagé chez sa sœur à Weybridge, dans le Surrey[1].
-Mort
-Elle meurt le 14 novembre 1955 dans une maison de retraite de Weybridge, à l’âge de 74 ans, d’une pneumonie et d’une thrombose cérébrale. Elle a été incinérée quatre jours plus tard à Golders Green, dans le nord de Londres[1].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née le 28 janvier 1881 à Watford. C'est la troisième fille du mariage formé par Alice (née Whitford) et Charles Pryor Ayres, un architecte basé à Londres.
 </t>
         </is>
       </c>
@@ -547,10 +557,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a commencé à écrire alors qu’elle était une fille, et sa première histoire a été publiée dans un magazine peu de temps après son mariage, et en 1912, elle a publié son premier roman, Châteaux en Espagne.
+En septembre 1915, avec son premier succès populaire, Richard Chatterton, V.C. (qui s’est vendu à plus de 50 000 exemplaires au cours des trois premières années), elle a déménagé des maisons d’édition à Hodder and Stoughton, où elle est restée jusqu’à sa mort en 1955. Elle a écrit plus de 150 romans et œuvres en feuilleton. Plusieurs de ses œuvres sont devenues des films et elle a écrit des scénarios pour Society for Sale, entre autres. Elle correspondait avec Douglas Sladen, et a peut-être aussi été une source d’inspiration pour le personnage de P. G. Wodehouse, Rosie M. Banks.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ruby_M._Ayres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruby_M._Ayres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie de famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1909, elle a épousé Reginald William Pocock, un courtier d’assurances, et ils ont vécu à Harrow jusqu’à sa mort dans un accident de train. Veuve sans enfants, elle a déménagé chez sa sœur à Weybridge, dans le Surrey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ruby_M._Ayres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruby_M._Ayres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle meurt le 14 novembre 1955 dans une maison de retraite de Weybridge, à l’âge de 74 ans, d’une pneumonie et d’une thrombose cérébrale. Elle a été incinérée quatre jours plus tard à Golders Green, dans le nord de Londres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ruby_M._Ayres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruby_M._Ayres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'Attente passionnée
 L'homme est le maître, Collection Stella N°404
